--- a/docs/files/ggtexttable-theme.xlsx
+++ b/docs/files/ggtexttable-theme.xlsx
@@ -940,7 +940,7 @@
   <dimension ref="B2:X24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="X30" sqref="X30"/>
+      <selection activeCell="T30" sqref="T30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
